--- a/source/Sylvan.Data.Excel.Tests/Data/NonAscii.xlsx
+++ b/source/Sylvan.Data.Excel.Tests/Data/NonAscii.xlsx
@@ -1,74 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Products\Kingfisher\Dev\Main Line\OpenSource\Sylvan.Data.Excel\source\Sylvan.Data.Excel.Tests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\source\Sylvan.Data.Excel\source\Sylvan.Data.Excel.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4979292-A7F9-4B8B-99FE-CBB6CD96DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87969788-2EF4-4EB0-829D-8BDAD0EE73DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Format of Import File" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Validate that the document is read in with the correct encoding, Encoding.Default in net48 is Windows 1252 not UTF8</t>
+    <t>Axéréal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,16 +60,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="%" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,34 +80,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Format of Import File"/>
-      <sheetName val="Rec"/>
-      <sheetName val="FX"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>44440</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17" t="str">
-            <v>SCA Axéréal</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,31 +345,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f>'[1]Format of Import File'!F17</f>
-        <v>SCA Axéréal</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
